--- a/Leerplanillacupos/output_310723.xlsx
+++ b/Leerplanillacupos/output_310723.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M523"/>
+  <dimension ref="A1:M561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20358,19 +20358,19 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>66440</v>
+        <v>72288</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ASP - M8A - ID</t>
+          <t>AR M7A ID</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>6455</v>
+        <v>3851</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+          <t xml:space="preserve"> Arquitectura de software</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -20380,20 +20380,22 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t xml:space="preserve">26 /  æ </t>
-        </is>
-      </c>
-      <c r="G444" t="inlineStr"/>
+          <t>31 / 31</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H444" t="n">
-        <v>26</v>
-      </c>
-      <c r="I444" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="I444" t="n">
+        <v>31</v>
       </c>
       <c r="J444" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr"/>
@@ -20401,42 +20403,44 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>66442</v>
+        <v>72289</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>ASP - N8A - ID</t>
+          <t>AR M7B ID</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>6455</v>
+        <v>3851</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+          <t xml:space="preserve"> Arquitectura de software</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 /  æ </t>
-        </is>
-      </c>
-      <c r="G445" t="inlineStr"/>
+          <t>30 / 30</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H445" t="n">
-        <v>19</v>
-      </c>
-      <c r="I445" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="I445" t="n">
+        <v>30</v>
       </c>
       <c r="J445" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr"/>
@@ -20444,42 +20448,44 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>66515</v>
+        <v>72156</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>AR - N7A - ID</t>
+          <t>D1 M4A AN</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3851</v>
+        <v>3924</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arquitectura de software</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t xml:space="preserve">20 /  æ </t>
-        </is>
-      </c>
-      <c r="G446" t="inlineStr"/>
+          <t>33 / 33</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H446" t="n">
-        <v>20</v>
-      </c>
-      <c r="I446" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="I446" t="n">
+        <v>33</v>
       </c>
       <c r="J446" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr"/>
@@ -20487,19 +20493,19 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>66444</v>
+        <v>72621</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>DPBT - M8A - ID</t>
+          <t>D1 M4B AN</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>7666</v>
+        <v>3924</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -20509,20 +20515,22 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t xml:space="preserve">26 /  æ </t>
-        </is>
-      </c>
-      <c r="G447" t="inlineStr"/>
+          <t>17 / 25</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H447" t="n">
-        <v>26</v>
-      </c>
-      <c r="I447" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="I447" t="n">
+        <v>25</v>
       </c>
       <c r="J447" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr"/>
@@ -20530,42 +20538,44 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>66445</v>
+        <v>72255</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>DPBT - N8A - ID</t>
+          <t>D1 M5A ID</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>7666</v>
+        <v>3924</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 /  æ </t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr"/>
+          <t>26 / 30</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H448" t="n">
-        <v>13</v>
-      </c>
-      <c r="I448" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="I448" t="n">
+        <v>30</v>
       </c>
       <c r="J448" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr"/>
@@ -20573,42 +20583,44 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>66441</v>
+        <v>72256</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>DCU - N8A - ID</t>
+          <t>D1 M5B ID</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>7667</v>
+        <v>3924</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño centrado en el usuario</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 /  æ </t>
-        </is>
-      </c>
-      <c r="G449" t="inlineStr"/>
+          <t>26 / 30</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H449" t="n">
-        <v>7</v>
-      </c>
-      <c r="I449" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="I449" t="n">
+        <v>30</v>
       </c>
       <c r="J449" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr"/>
@@ -20616,19 +20628,19 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>66499</v>
+        <v>72257</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>DA2 - M6A - ID</t>
+          <t>D1 M5C ID</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>6343</v>
+        <v>3924</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -20638,20 +20650,22 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t xml:space="preserve">25 /  æ </t>
-        </is>
-      </c>
-      <c r="G450" t="inlineStr"/>
+          <t>23 / 25</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H450" t="n">
+        <v>23</v>
+      </c>
+      <c r="I450" t="n">
         <v>25</v>
       </c>
-      <c r="I450" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
-      </c>
       <c r="J450" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr"/>
@@ -20659,19 +20673,19 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>66500</v>
+        <v>72258</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>DA2 - M6B - ID</t>
+          <t>D1 M5D ID</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>6343</v>
+        <v>3924</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -20681,20 +20695,22 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 /  æ </t>
-        </is>
-      </c>
-      <c r="G451" t="inlineStr"/>
+          <t>24 / 30</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H451" t="n">
-        <v>19</v>
-      </c>
-      <c r="I451" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="I451" t="n">
+        <v>30</v>
       </c>
       <c r="J451" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr"/>
@@ -20702,11 +20718,11 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>66501</v>
+        <v>72160</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>DA2 - M6C - ID</t>
+          <t>D2 M5A AN</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -20724,20 +20740,22 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 /  æ </t>
-        </is>
-      </c>
-      <c r="G452" t="inlineStr"/>
+          <t>25 / 30</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H452" t="n">
-        <v>18</v>
-      </c>
-      <c r="I452" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="I452" t="n">
+        <v>30</v>
       </c>
       <c r="J452" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr"/>
@@ -20745,11 +20763,11 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>66502</v>
+        <v>72164</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>DA2 - N6A - ID</t>
+          <t>D2 M5B AN // M6B - ID</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -20762,25 +20780,27 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t xml:space="preserve">21 /  æ </t>
-        </is>
-      </c>
-      <c r="G453" t="inlineStr"/>
+          <t>31 / 31</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H453" t="n">
-        <v>21</v>
-      </c>
-      <c r="I453" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="I453" t="n">
+        <v>31</v>
       </c>
       <c r="J453" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr"/>
@@ -20788,42 +20808,44 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>66495</v>
+        <v>72165</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>FIS - N4A - ID</t>
+          <t>D2 M6A ID</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>7669</v>
+        <v>6343</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 /  æ </t>
-        </is>
-      </c>
-      <c r="G454" t="inlineStr"/>
+          <t>35 / 35</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="I454" t="n">
+        <v>35</v>
       </c>
       <c r="J454" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr"/>
@@ -20831,42 +20853,44 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>66727</v>
+        <v>72140</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>HGGPY - N9A - ID</t>
+          <t>FIS M3A AN</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>5733</v>
+        <v>7669</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t xml:space="preserve">30 /  æ </t>
-        </is>
-      </c>
-      <c r="G455" t="inlineStr"/>
+          <t>25 / 30</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H455" t="n">
+        <v>25</v>
+      </c>
+      <c r="I455" t="n">
         <v>30</v>
       </c>
-      <c r="I455" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
-      </c>
       <c r="J455" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr"/>
@@ -20874,19 +20898,19 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>66507</v>
+        <v>72141</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ISA1 - M6A - ID</t>
+          <t>FIS M3B AN</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>7674</v>
+        <v>7669</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -20896,20 +20920,22 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t xml:space="preserve">24 /  æ </t>
-        </is>
-      </c>
-      <c r="G456" t="inlineStr"/>
+          <t>28 / 30</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H456" t="n">
-        <v>24</v>
-      </c>
-      <c r="I456" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="I456" t="n">
+        <v>30</v>
       </c>
       <c r="J456" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr"/>
@@ -20917,19 +20943,19 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>66508</v>
+        <v>72142</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ISA1 - M6B - ID</t>
+          <t>FIS M3C AN</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>7674</v>
+        <v>7669</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -20939,20 +20965,22 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t xml:space="preserve">21 /  æ </t>
-        </is>
-      </c>
-      <c r="G457" t="inlineStr"/>
+          <t>21 / 30</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H457" t="n">
         <v>21</v>
       </c>
-      <c r="I457" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+      <c r="I457" t="n">
+        <v>30</v>
       </c>
       <c r="J457" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr"/>
@@ -20960,19 +20988,19 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>66509</v>
+        <v>72251</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>ISA1 - M6C - ID</t>
+          <t>FIS M4A ID</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>7674</v>
+        <v>7669</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -20982,20 +21010,22 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t xml:space="preserve">16 /  æ </t>
-        </is>
-      </c>
-      <c r="G458" t="inlineStr"/>
+          <t>20 / 30</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>(5) PRESENCIAL</t>
+        </is>
+      </c>
       <c r="H458" t="n">
-        <v>16</v>
-      </c>
-      <c r="I458" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="I458" t="n">
+        <v>30</v>
       </c>
       <c r="J458" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr"/>
@@ -21003,42 +21033,44 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>66510</v>
+        <v>72309</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ISA1 - N6A - ID</t>
+          <t>HGGPY M9A ID</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>7674</v>
+        <v>5733</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t xml:space="preserve">14 /  æ </t>
-        </is>
-      </c>
-      <c r="G459" t="inlineStr"/>
+          <t>25 / 30</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H459" t="n">
-        <v>14</v>
-      </c>
-      <c r="I459" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="I459" t="n">
+        <v>30</v>
       </c>
       <c r="J459" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr"/>
@@ -21046,42 +21078,44 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>66516</v>
+        <v>72176</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>ISA2 - N7A - ID</t>
+          <t>ISA1 M6A AN</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>7675</v>
+        <v>7674</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t xml:space="preserve">20 /  æ </t>
-        </is>
-      </c>
-      <c r="G460" t="inlineStr"/>
+          <t>13 / 30</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H460" t="n">
-        <v>20</v>
-      </c>
-      <c r="I460" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="I460" t="n">
+        <v>30</v>
       </c>
       <c r="J460" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr"/>
@@ -21089,19 +21123,19 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>66443</v>
+        <v>72280</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>IHC - M8A - ID</t>
+          <t>ISA1 M6A ID</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>7676</v>
+        <v>7674</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interacción humano-computadora</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -21111,20 +21145,22 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t xml:space="preserve">25 /  æ </t>
-        </is>
-      </c>
-      <c r="G461" t="inlineStr"/>
+          <t>34 / 35</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H461" t="n">
-        <v>25</v>
-      </c>
-      <c r="I461" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="I461" t="n">
+        <v>35</v>
       </c>
       <c r="J461" s="2" t="n">
-        <v>45133</v>
+        <v>45714</v>
       </c>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr"/>
@@ -21132,19 +21168,19 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>66440</v>
+        <v>72294</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ASP - M8A - ID</t>
+          <t>ISA2 M7A ID</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>6455</v>
+        <v>7675</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -21154,20 +21190,22 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t xml:space="preserve">27 /  æ </t>
-        </is>
-      </c>
-      <c r="G462" t="inlineStr"/>
+          <t>28 / 30</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H462" t="n">
-        <v>27</v>
-      </c>
-      <c r="I462" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="I462" t="n">
+        <v>30</v>
       </c>
       <c r="J462" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr"/>
@@ -21175,42 +21213,44 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>66442</v>
+        <v>72295</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ASP - N8A - ID</t>
+          <t>ISA2 M7B ID</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>6455</v>
+        <v>7675</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 /  æ </t>
-        </is>
-      </c>
-      <c r="G463" t="inlineStr"/>
+          <t>29 / 30</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H463" t="n">
-        <v>19</v>
-      </c>
-      <c r="I463" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="I463" t="n">
+        <v>30</v>
       </c>
       <c r="J463" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr"/>
@@ -21218,19 +21258,19 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>66515</v>
+        <v>72305</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>AR - N7A - ID</t>
+          <t>ASP N8A ID</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>3851</v>
+        <v>6455</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arquitectura de software</t>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -21240,20 +21280,22 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 /  æ </t>
-        </is>
-      </c>
-      <c r="G464" t="inlineStr"/>
+          <t>21 / 21</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H464" t="n">
-        <v>22</v>
-      </c>
-      <c r="I464" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="I464" t="n">
+        <v>21</v>
       </c>
       <c r="J464" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr"/>
@@ -21261,19 +21303,19 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>66758</v>
+        <v>72398</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>ELE - AS</t>
+          <t>ASP N8B ID</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>7902</v>
+        <v>6455</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arquitecturas Serverless</t>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -21283,20 +21325,22 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 /  æ </t>
-        </is>
-      </c>
-      <c r="G465" t="inlineStr"/>
+          <t>23 / 23</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H465" t="n">
-        <v>11</v>
-      </c>
-      <c r="I465" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="I465" t="n">
+        <v>23</v>
       </c>
       <c r="J465" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr"/>
@@ -21304,42 +21348,44 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>66444</v>
+        <v>72290</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DPBT - M8A - ID</t>
+          <t>AR N7A ID</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>7666</v>
+        <v>3851</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+          <t xml:space="preserve"> Arquitectura de software</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 /  æ </t>
-        </is>
-      </c>
-      <c r="G466" t="inlineStr"/>
+          <t>26 / 32</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H466" t="n">
-        <v>28</v>
-      </c>
-      <c r="I466" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="I466" t="n">
+        <v>32</v>
       </c>
       <c r="J466" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr"/>
@@ -21347,11 +21393,11 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>66445</v>
+        <v>72202</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DPBT - N8A - ID</t>
+          <t>DPBT N7A AN // N8B - ID</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -21369,20 +21415,22 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 /  æ </t>
-        </is>
-      </c>
-      <c r="G467" t="inlineStr"/>
+          <t>41 / 41</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H467" t="n">
-        <v>19</v>
-      </c>
-      <c r="I467" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>41</v>
+      </c>
+      <c r="I467" t="n">
+        <v>41</v>
       </c>
       <c r="J467" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr"/>
@@ -21390,19 +21438,19 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>66441</v>
+        <v>72306</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DCU - N8A - ID</t>
+          <t>DPBT N8A ID</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>7667</v>
+        <v>7666</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño centrado en el usuario</t>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -21412,20 +21460,22 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t xml:space="preserve">14 /  æ </t>
-        </is>
-      </c>
-      <c r="G468" t="inlineStr"/>
+          <t>40 / 40</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H468" t="n">
-        <v>14</v>
-      </c>
-      <c r="I468" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="I468" t="n">
+        <v>40</v>
       </c>
       <c r="J468" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr"/>
@@ -21433,11 +21483,11 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>66497</v>
+        <v>72190</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DA1 - M5A - ID</t>
+          <t>D1 N4A AN</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -21450,25 +21500,27 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t xml:space="preserve">27 /  æ </t>
-        </is>
-      </c>
-      <c r="G469" t="inlineStr"/>
+          <t>32 / 32</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H469" t="n">
-        <v>27</v>
-      </c>
-      <c r="I469" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="I469" t="n">
+        <v>32</v>
       </c>
       <c r="J469" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr"/>
@@ -21476,11 +21528,11 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>66498</v>
+        <v>72259</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>DA1 - N5A - ID</t>
+          <t>D1 N5A ID</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -21498,20 +21550,22 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 /  æ </t>
-        </is>
-      </c>
-      <c r="G470" t="inlineStr"/>
+          <t>18 / 30</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H470" t="n">
-        <v>9</v>
-      </c>
-      <c r="I470" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="I470" t="n">
+        <v>30</v>
       </c>
       <c r="J470" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr"/>
@@ -21519,11 +21573,11 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>66499</v>
+        <v>72191</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>DA2 - M6A - ID</t>
+          <t>D2 N5A AN</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -21536,25 +21590,27 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t xml:space="preserve">26 /  æ </t>
-        </is>
-      </c>
-      <c r="G471" t="inlineStr"/>
+          <t>35 / 35</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H471" t="n">
-        <v>26</v>
-      </c>
-      <c r="I471" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="I471" t="n">
+        <v>35</v>
       </c>
       <c r="J471" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr"/>
@@ -21562,11 +21618,11 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>66500</v>
+        <v>72850</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>DA2 - M6B - ID</t>
+          <t>D2 N5B-AN//N6C-ID</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -21579,25 +21635,27 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 /  æ </t>
-        </is>
-      </c>
-      <c r="G472" t="inlineStr"/>
+          <t>23 / 30</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H472" t="n">
-        <v>19</v>
-      </c>
-      <c r="I472" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="I472" t="n">
+        <v>30</v>
       </c>
       <c r="J472" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr"/>
@@ -21605,11 +21663,11 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>66501</v>
+        <v>72277</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>DA2 - M6C - ID</t>
+          <t>D2 N6A ID</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -21622,25 +21680,27 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 /  æ </t>
-        </is>
-      </c>
-      <c r="G473" t="inlineStr"/>
+          <t>26 / 30</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H473" t="n">
-        <v>18</v>
-      </c>
-      <c r="I473" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="I473" t="n">
+        <v>30</v>
       </c>
       <c r="J473" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr"/>
@@ -21648,11 +21708,11 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>66502</v>
+        <v>72303</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>DA2 - N6A - ID</t>
+          <t>D2 N6B ID</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -21670,20 +21730,22 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t xml:space="preserve">27 /  æ </t>
-        </is>
-      </c>
-      <c r="G474" t="inlineStr"/>
+          <t>26 / 30</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H474" t="n">
-        <v>27</v>
-      </c>
-      <c r="I474" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="I474" t="n">
+        <v>30</v>
       </c>
       <c r="J474" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr"/>
@@ -21691,11 +21753,11 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>66492</v>
+        <v>72185</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>FIS - M4A - ID</t>
+          <t>FIS N3A AN</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -21708,23 +21770,27 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>17 / 28</t>
-        </is>
-      </c>
-      <c r="G475" t="inlineStr"/>
+          <t>28 / 30</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H475" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I475" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J475" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr"/>
@@ -21732,11 +21798,11 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>66493</v>
+        <v>72252</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>FIS - M4B - ID</t>
+          <t>FIS N4A ID</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -21749,23 +21815,27 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>17 / 40</t>
-        </is>
-      </c>
-      <c r="G476" t="inlineStr"/>
+          <t>18 / 30</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H476" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I476" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J476" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr"/>
@@ -21773,40 +21843,44 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>66494</v>
+        <v>72310</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>FIS - M4C - ID</t>
+          <t>HGGPY N9A ID</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>7669</v>
+        <v>5733</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>30 / 30</t>
-        </is>
-      </c>
-      <c r="G477" t="inlineStr"/>
+          <t>36 / 36</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H477" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I477" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J477" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr"/>
@@ -21814,40 +21888,44 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>66496</v>
+        <v>72198</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>FIS - M4D - ID</t>
+          <t>ISA1 N6A AN</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>7669</v>
+        <v>7674</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>20 / 21</t>
-        </is>
-      </c>
-      <c r="G478" t="inlineStr"/>
+          <t>31 / 31</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H478" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I478" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J478" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr"/>
@@ -21855,19 +21933,19 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>66495</v>
+        <v>72281</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>FIS - N4A - ID</t>
+          <t>ISA1 N6A ID</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>7669</v>
+        <v>7674</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -21877,20 +21955,22 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t xml:space="preserve">14 /  æ </t>
-        </is>
-      </c>
-      <c r="G479" t="inlineStr"/>
+          <t>26 / 30</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H479" t="n">
-        <v>14</v>
-      </c>
-      <c r="I479" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="I479" t="n">
+        <v>30</v>
       </c>
       <c r="J479" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr"/>
@@ -21898,19 +21978,19 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>66727</v>
+        <v>72296</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>HGGPY - N9A - ID</t>
+          <t>ISA2 N7A ID</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>5733</v>
+        <v>7675</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -21920,20 +22000,22 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t xml:space="preserve">30 /  æ </t>
-        </is>
-      </c>
-      <c r="G480" t="inlineStr"/>
+          <t>29 / 32</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H480" t="n">
-        <v>30</v>
-      </c>
-      <c r="I480" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="I480" t="n">
+        <v>32</v>
       </c>
       <c r="J480" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr"/>
@@ -21941,42 +22023,44 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>66507</v>
+        <v>72307</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ISA1 - M6A - ID</t>
+          <t>IHC N8A ID</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>7674</v>
+        <v>7676</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Interacción humano-computadora</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t xml:space="preserve">25 /  æ </t>
-        </is>
-      </c>
-      <c r="G481" t="inlineStr"/>
+          <t>36 / 36</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>(6) HYFLEX</t>
+        </is>
+      </c>
       <c r="H481" t="n">
-        <v>25</v>
-      </c>
-      <c r="I481" t="inlineStr">
-        <is>
-          <t>æ</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="I481" t="n">
+        <v>36</v>
       </c>
       <c r="J481" s="2" t="n">
-        <v>45134</v>
+        <v>45714</v>
       </c>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr"/>
@@ -21984,19 +22068,19 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>66508</v>
+        <v>66440</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ISA1 - M6B - ID</t>
+          <t>ASP - M8A - ID</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>7674</v>
+        <v>6455</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -22006,12 +22090,12 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 /  æ </t>
+          <t xml:space="preserve">26 /  æ </t>
         </is>
       </c>
       <c r="G482" t="inlineStr"/>
       <c r="H482" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I482" t="inlineStr">
         <is>
@@ -22019,7 +22103,7 @@
         </is>
       </c>
       <c r="J482" s="2" t="n">
-        <v>45134</v>
+        <v>45133</v>
       </c>
       <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr"/>
@@ -22027,34 +22111,34 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>66509</v>
+        <v>66442</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>ISA1 - M6C - ID</t>
+          <t>ASP - N8A - ID</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>7674</v>
+        <v>6455</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t xml:space="preserve">16 /  æ </t>
+          <t xml:space="preserve">19 /  æ </t>
         </is>
       </c>
       <c r="G483" t="inlineStr"/>
       <c r="H483" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I483" t="inlineStr">
         <is>
@@ -22062,7 +22146,7 @@
         </is>
       </c>
       <c r="J483" s="2" t="n">
-        <v>45134</v>
+        <v>45133</v>
       </c>
       <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr"/>
@@ -22070,19 +22154,19 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>66510</v>
+        <v>66515</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>ISA1 - N6A - ID</t>
+          <t>AR - N7A - ID</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>7674</v>
+        <v>3851</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Arquitectura de software</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -22092,12 +22176,12 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t xml:space="preserve">17 /  æ </t>
+          <t xml:space="preserve">20 /  æ </t>
         </is>
       </c>
       <c r="G484" t="inlineStr"/>
       <c r="H484" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I484" t="inlineStr">
         <is>
@@ -22105,7 +22189,7 @@
         </is>
       </c>
       <c r="J484" s="2" t="n">
-        <v>45134</v>
+        <v>45133</v>
       </c>
       <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr"/>
@@ -22113,34 +22197,34 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>66516</v>
+        <v>66444</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>ISA2 - N7A - ID</t>
+          <t>DPBT - M8A - ID</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>7675</v>
+        <v>7666</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 /  æ </t>
+          <t xml:space="preserve">26 /  æ </t>
         </is>
       </c>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I485" t="inlineStr">
         <is>
@@ -22148,7 +22232,7 @@
         </is>
       </c>
       <c r="J485" s="2" t="n">
-        <v>45134</v>
+        <v>45133</v>
       </c>
       <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr"/>
@@ -22156,34 +22240,34 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>66443</v>
+        <v>66445</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>IHC - M8A - ID</t>
+          <t>DPBT - N8A - ID</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>7676</v>
+        <v>7666</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interacción humano-computadora</t>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 /  æ </t>
+          <t xml:space="preserve">13 /  æ </t>
         </is>
       </c>
       <c r="G486" t="inlineStr"/>
       <c r="H486" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I486" t="inlineStr">
         <is>
@@ -22191,7 +22275,7 @@
         </is>
       </c>
       <c r="J486" s="2" t="n">
-        <v>45134</v>
+        <v>45133</v>
       </c>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr"/>
@@ -22199,19 +22283,19 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>66766</v>
+        <v>66441</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>ELE - TNEP</t>
+          <t>DCU - N8A - ID</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>7473</v>
+        <v>7667</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tec. de negoc. para equip proy</t>
+          <t xml:space="preserve"> Diseño centrado en el usuario</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -22221,12 +22305,12 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t xml:space="preserve">23 /  æ </t>
+          <t xml:space="preserve">7 /  æ </t>
         </is>
       </c>
       <c r="G487" t="inlineStr"/>
       <c r="H487" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I487" t="inlineStr">
         <is>
@@ -22234,7 +22318,7 @@
         </is>
       </c>
       <c r="J487" s="2" t="n">
-        <v>45134</v>
+        <v>45133</v>
       </c>
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr"/>
@@ -22242,40 +22326,42 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>66442</v>
+        <v>66499</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>ASP - N8A - ID</t>
+          <t>DA2 - M6A - ID</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>6455</v>
+        <v>6343</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>21 / 30</t>
+          <t xml:space="preserve">25 /  æ </t>
         </is>
       </c>
       <c r="G488" t="inlineStr"/>
       <c r="H488" t="n">
-        <v>21</v>
-      </c>
-      <c r="I488" t="n">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J488" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr"/>
@@ -22283,19 +22369,19 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>66440</v>
+        <v>66500</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>ASP - M8A - ID</t>
+          <t>DA2 - M6B - ID</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>6455</v>
+        <v>6343</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -22305,18 +22391,20 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>28 / 29</t>
+          <t xml:space="preserve">19 /  æ </t>
         </is>
       </c>
       <c r="G489" t="inlineStr"/>
       <c r="H489" t="n">
-        <v>28</v>
-      </c>
-      <c r="I489" t="n">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J489" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr"/>
@@ -22324,40 +22412,42 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>66515</v>
+        <v>66501</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>AR - N7A - ID</t>
+          <t>DA2 - M6C - ID</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>3851</v>
+        <v>6343</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arquitectura de software</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>33 / 33</t>
+          <t xml:space="preserve">18 /  æ </t>
         </is>
       </c>
       <c r="G490" t="inlineStr"/>
       <c r="H490" t="n">
-        <v>33</v>
-      </c>
-      <c r="I490" t="n">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J490" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr"/>
@@ -22365,19 +22455,19 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>66758</v>
+        <v>66502</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>ELE - AS</t>
+          <t>DA2 - N6A - ID</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>7902</v>
+        <v>6343</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arquitecturas Serverless</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -22387,12 +22477,12 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 /  æ </t>
+          <t xml:space="preserve">21 /  æ </t>
         </is>
       </c>
       <c r="G491" t="inlineStr"/>
       <c r="H491" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I491" t="inlineStr">
         <is>
@@ -22400,7 +22490,7 @@
         </is>
       </c>
       <c r="J491" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr"/>
@@ -22408,19 +22498,19 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>66468</v>
+        <v>66495</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>DPBT - N7A - AN</t>
+          <t>FIS - N4A - ID</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>7666</v>
+        <v>7669</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -22430,18 +22520,20 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>12 / 29</t>
+          <t xml:space="preserve">1 /  æ </t>
         </is>
       </c>
       <c r="G492" t="inlineStr"/>
       <c r="H492" t="n">
-        <v>12</v>
-      </c>
-      <c r="I492" t="n">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J492" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr"/>
@@ -22449,19 +22541,19 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>66445</v>
+        <v>66727</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>DPBT - N8A - ID</t>
+          <t>HGGPY - N9A - ID</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>7666</v>
+        <v>5733</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -22471,18 +22563,20 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>19 / 30</t>
+          <t xml:space="preserve">30 /  æ </t>
         </is>
       </c>
       <c r="G493" t="inlineStr"/>
       <c r="H493" t="n">
-        <v>19</v>
-      </c>
-      <c r="I493" t="n">
         <v>30</v>
       </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
       <c r="J493" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr"/>
@@ -22490,19 +22584,19 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>66444</v>
+        <v>66507</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>DPBT - M8A - ID</t>
+          <t>ISA1 - M6A - ID</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>7666</v>
+        <v>7674</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -22512,18 +22606,20 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>29 / 29</t>
+          <t xml:space="preserve">24 /  æ </t>
         </is>
       </c>
       <c r="G494" t="inlineStr"/>
       <c r="H494" t="n">
-        <v>29</v>
-      </c>
-      <c r="I494" t="n">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J494" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr"/>
@@ -22531,40 +22627,42 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>66441</v>
+        <v>66508</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>DCU - N8A - ID</t>
+          <t>ISA1 - M6B - ID</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>7667</v>
+        <v>7674</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño centrado en el usuario</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>19 / 30</t>
+          <t xml:space="preserve">21 /  æ </t>
         </is>
       </c>
       <c r="G495" t="inlineStr"/>
       <c r="H495" t="n">
-        <v>19</v>
-      </c>
-      <c r="I495" t="n">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J495" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr"/>
@@ -22572,40 +22670,42 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>66498</v>
+        <v>66509</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>DA1 - N5A - ID</t>
+          <t>ISA1 - M6C - ID</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>3924</v>
+        <v>7674</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>11 / 26</t>
+          <t xml:space="preserve">16 /  æ </t>
         </is>
       </c>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="n">
-        <v>11</v>
-      </c>
-      <c r="I496" t="n">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J496" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr"/>
@@ -22613,40 +22713,42 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>66454</v>
+        <v>66510</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>DA1 - M4A - AN</t>
+          <t>ISA1 - N6A - ID</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3924</v>
+        <v>7674</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>15 / 27</t>
+          <t xml:space="preserve">14 /  æ </t>
         </is>
       </c>
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="n">
-        <v>15</v>
-      </c>
-      <c r="I497" t="n">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J497" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr"/>
@@ -22654,19 +22756,19 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>66459</v>
+        <v>66516</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>DA1 - N4A - AN</t>
+          <t>ISA2 - N7A - ID</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>3924</v>
+        <v>7675</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -22676,18 +22778,20 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>16 / 35</t>
+          <t xml:space="preserve">20 /  æ </t>
         </is>
       </c>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="n">
-        <v>16</v>
-      </c>
-      <c r="I498" t="n">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J498" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr"/>
@@ -22695,19 +22799,19 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>66456</v>
+        <v>66443</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>DA1 - M4B - AN</t>
+          <t>IHC - M8A - ID</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>3924</v>
+        <v>7676</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+          <t xml:space="preserve"> Interacción humano-computadora</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -22717,18 +22821,20 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>22 / 22</t>
+          <t xml:space="preserve">25 /  æ </t>
         </is>
       </c>
       <c r="G499" t="inlineStr"/>
       <c r="H499" t="n">
-        <v>22</v>
-      </c>
-      <c r="I499" t="n">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J499" s="2" t="n">
-        <v>45138</v>
+        <v>45133</v>
       </c>
       <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr"/>
@@ -22736,19 +22842,19 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>66497</v>
+        <v>66440</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>DA1 - M5A - ID</t>
+          <t>ASP - M8A - ID</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3924</v>
+        <v>6455</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -22758,18 +22864,20 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>29 / 30</t>
+          <t xml:space="preserve">27 /  æ </t>
         </is>
       </c>
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="n">
-        <v>29</v>
-      </c>
-      <c r="I500" t="n">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J500" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr"/>
@@ -22777,40 +22885,42 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>66460</v>
+        <v>66442</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>DA2 - M5A - AN</t>
+          <t>ASP - N8A - ID</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>6343</v>
+        <v>6455</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>16 / 26</t>
+          <t xml:space="preserve">19 /  æ </t>
         </is>
       </c>
       <c r="G501" t="inlineStr"/>
       <c r="H501" t="n">
-        <v>16</v>
-      </c>
-      <c r="I501" t="n">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J501" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr"/>
@@ -22818,40 +22928,42 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>66501</v>
+        <v>66515</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>DA2 - M6C - ID</t>
+          <t>AR - N7A - ID</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>6343</v>
+        <v>3851</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+          <t xml:space="preserve"> Arquitectura de software</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>20 / 30</t>
+          <t xml:space="preserve">22 /  æ </t>
         </is>
       </c>
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="n">
-        <v>20</v>
-      </c>
-      <c r="I502" t="n">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J502" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr"/>
@@ -22859,40 +22971,42 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>66500</v>
+        <v>66758</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>DA2 - M6B - ID</t>
+          <t>ELE - AS</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>6343</v>
+        <v>7902</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+          <t xml:space="preserve"> Arquitecturas Serverless</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>22 / 33</t>
+          <t xml:space="preserve">11 /  æ </t>
         </is>
       </c>
       <c r="G503" t="inlineStr"/>
       <c r="H503" t="n">
-        <v>22</v>
-      </c>
-      <c r="I503" t="n">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J503" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr"/>
@@ -22900,19 +23014,19 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>66499</v>
+        <v>66444</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>DA2 - M6A - ID</t>
+          <t>DPBT - M8A - ID</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>6343</v>
+        <v>7666</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -22922,18 +23036,20 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>26 / 26</t>
+          <t xml:space="preserve">28 /  æ </t>
         </is>
       </c>
       <c r="G504" t="inlineStr"/>
       <c r="H504" t="n">
-        <v>26</v>
-      </c>
-      <c r="I504" t="n">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J504" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr"/>
@@ -22941,19 +23057,19 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>66461</v>
+        <v>66445</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>DA2 - N5A - AN</t>
+          <t>DPBT - N8A - ID</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>6343</v>
+        <v>7666</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -22963,18 +23079,20 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>32 / 32</t>
+          <t xml:space="preserve">19 /  æ </t>
         </is>
       </c>
       <c r="G505" t="inlineStr"/>
       <c r="H505" t="n">
-        <v>32</v>
-      </c>
-      <c r="I505" t="n">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J505" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr"/>
@@ -22982,19 +23100,19 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>66502</v>
+        <v>66441</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>DA2 - N6A - ID</t>
+          <t>DCU - N8A - ID</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>6343</v>
+        <v>7667</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+          <t xml:space="preserve"> Diseño centrado en el usuario</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -23004,18 +23122,20 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>32 / 33</t>
+          <t xml:space="preserve">14 /  æ </t>
         </is>
       </c>
       <c r="G506" t="inlineStr"/>
       <c r="H506" t="n">
-        <v>32</v>
-      </c>
-      <c r="I506" t="n">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J506" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr"/>
@@ -23023,40 +23143,42 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>66458</v>
+        <v>66497</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>FIS - N3A - AN</t>
+          <t>DA1 - M5A - ID</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>7669</v>
+        <v>3924</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>14 / 37</t>
+          <t xml:space="preserve">27 /  æ </t>
         </is>
       </c>
       <c r="G507" t="inlineStr"/>
       <c r="H507" t="n">
-        <v>14</v>
-      </c>
-      <c r="I507" t="n">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J507" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr"/>
@@ -23064,40 +23186,42 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>66496</v>
+        <v>66498</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>FIS - M4D - ID</t>
+          <t>DA1 - N5A - ID</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>7669</v>
+        <v>3924</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>21 / 21</t>
+          <t xml:space="preserve">9 /  æ </t>
         </is>
       </c>
       <c r="G508" t="inlineStr"/>
       <c r="H508" t="n">
-        <v>21</v>
-      </c>
-      <c r="I508" t="n">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J508" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr"/>
@@ -23105,40 +23229,42 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>66495</v>
+        <v>66499</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>FIS - N4A - ID</t>
+          <t>DA2 - M6A - ID</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>7669</v>
+        <v>6343</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>21 / 31</t>
+          <t xml:space="preserve">26 /  æ </t>
         </is>
       </c>
       <c r="G509" t="inlineStr"/>
       <c r="H509" t="n">
-        <v>21</v>
-      </c>
-      <c r="I509" t="n">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J509" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr"/>
@@ -23146,19 +23272,19 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>66452</v>
+        <v>66500</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>FIS - M3A - AN</t>
+          <t>DA2 - M6B - ID</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>7669</v>
+        <v>6343</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -23168,18 +23294,20 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>26 / 28</t>
+          <t xml:space="preserve">19 /  æ </t>
         </is>
       </c>
       <c r="G510" t="inlineStr"/>
       <c r="H510" t="n">
-        <v>26</v>
-      </c>
-      <c r="I510" t="n">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J510" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr"/>
@@ -23187,19 +23315,19 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>66492</v>
+        <v>66501</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>FIS - M4A - ID</t>
+          <t>DA2 - M6C - ID</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>7669</v>
+        <v>6343</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -23209,18 +23337,20 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>26 / 28</t>
+          <t xml:space="preserve">18 /  æ </t>
         </is>
       </c>
       <c r="G511" t="inlineStr"/>
       <c r="H511" t="n">
-        <v>26</v>
-      </c>
-      <c r="I511" t="n">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J511" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr"/>
@@ -23228,40 +23358,42 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>66493</v>
+        <v>66502</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>FIS - M4B - ID</t>
+          <t>DA2 - N6A - ID</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>7669</v>
+        <v>6343</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>30 / 30</t>
+          <t xml:space="preserve">27 /  æ </t>
         </is>
       </c>
       <c r="G512" t="inlineStr"/>
       <c r="H512" t="n">
-        <v>30</v>
-      </c>
-      <c r="I512" t="n">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J512" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr"/>
@@ -23269,11 +23401,11 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>66494</v>
+        <v>66492</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>FIS - M4C - ID</t>
+          <t>FIS - M4A - ID</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -23291,18 +23423,18 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>30 / 30</t>
+          <t>17 / 28</t>
         </is>
       </c>
       <c r="G513" t="inlineStr"/>
       <c r="H513" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I513" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J513" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr"/>
@@ -23310,11 +23442,11 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>66453</v>
+        <v>66493</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>FIS - M3B - AN</t>
+          <t>FIS - M4B - ID</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -23332,18 +23464,18 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>7 / 10</t>
+          <t>17 / 40</t>
         </is>
       </c>
       <c r="G514" t="inlineStr"/>
       <c r="H514" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I514" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J514" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr"/>
@@ -23351,24 +23483,24 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>66727</v>
+        <v>66494</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>HGGPY - N9A - ID</t>
+          <t>FIS - M4C - ID</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>5733</v>
+        <v>7669</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -23384,7 +23516,7 @@
         <v>30</v>
       </c>
       <c r="J515" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr"/>
@@ -23392,19 +23524,19 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>66509</v>
+        <v>66496</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>ISA1 - M6C - ID</t>
+          <t>FIS - M4D - ID</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>7674</v>
+        <v>7669</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -23414,18 +23546,18 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>16 / 30</t>
+          <t>20 / 21</t>
         </is>
       </c>
       <c r="G516" t="inlineStr"/>
       <c r="H516" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I516" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J516" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr"/>
@@ -23433,19 +23565,19 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>66510</v>
+        <v>66495</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>ISA1 - N6A - ID</t>
+          <t>FIS - N4A - ID</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>7674</v>
+        <v>7669</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -23455,18 +23587,20 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>18 / 33</t>
+          <t xml:space="preserve">14 /  æ </t>
         </is>
       </c>
       <c r="G517" t="inlineStr"/>
       <c r="H517" t="n">
-        <v>18</v>
-      </c>
-      <c r="I517" t="n">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J517" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr"/>
@@ -23474,40 +23608,42 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>66508</v>
+        <v>66727</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ISA1 - M6B - ID</t>
+          <t>HGGPY - N9A - ID</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>7674</v>
+        <v>5733</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>23 / 33</t>
+          <t xml:space="preserve">30 /  æ </t>
         </is>
       </c>
       <c r="G518" t="inlineStr"/>
       <c r="H518" t="n">
-        <v>23</v>
-      </c>
-      <c r="I518" t="n">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J518" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr"/>
@@ -23537,18 +23673,20 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>25 / 25</t>
+          <t xml:space="preserve">25 /  æ </t>
         </is>
       </c>
       <c r="G519" t="inlineStr"/>
       <c r="H519" t="n">
         <v>25</v>
       </c>
-      <c r="I519" t="n">
-        <v>25</v>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J519" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr"/>
@@ -23556,11 +23694,11 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>66467</v>
+        <v>66508</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>ISA1 - N6A - AN</t>
+          <t>ISA1 - M6B - ID</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -23573,23 +23711,25 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>33 / 38</t>
+          <t xml:space="preserve">22 /  æ </t>
         </is>
       </c>
       <c r="G520" t="inlineStr"/>
       <c r="H520" t="n">
-        <v>33</v>
-      </c>
-      <c r="I520" t="n">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J520" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr"/>
@@ -23597,40 +23737,42 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>66516</v>
+        <v>66509</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>ISA2 - N7A - ID</t>
+          <t>ISA1 - M6C - ID</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>7675</v>
+        <v>7674</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>Nocturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>25 / 30</t>
+          <t xml:space="preserve">16 /  æ </t>
         </is>
       </c>
       <c r="G521" t="inlineStr"/>
       <c r="H521" t="n">
-        <v>25</v>
-      </c>
-      <c r="I521" t="n">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J521" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr"/>
@@ -23638,40 +23780,42 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>66443</v>
+        <v>66510</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>IHC - M8A - ID</t>
+          <t>ISA1 - N6A - ID</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>7676</v>
+        <v>7674</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interacción humano-computadora</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>31 / 31</t>
+          <t xml:space="preserve">17 /  æ </t>
         </is>
       </c>
       <c r="G522" t="inlineStr"/>
       <c r="H522" t="n">
-        <v>31</v>
-      </c>
-      <c r="I522" t="n">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
       </c>
       <c r="J522" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr"/>
@@ -23679,19 +23823,19 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>66766</v>
+        <v>66516</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>ELE - TNEP</t>
+          <t>ISA2 - N7A - ID</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>7473</v>
+        <v>7675</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tec. de negoc. para equip proy</t>
+          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -23714,11 +23858,1577 @@
         </is>
       </c>
       <c r="J523" s="2" t="n">
-        <v>45138</v>
+        <v>45134</v>
       </c>
       <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr"/>
       <c r="M523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>66443</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>IHC - M8A - ID</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>7676</v>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Interacción humano-computadora</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 /  æ </t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr"/>
+      <c r="H524" t="n">
+        <v>28</v>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J524" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
+      <c r="M524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>66766</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>ELE - TNEP</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>7473</v>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tec. de negoc. para equip proy</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 /  æ </t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr"/>
+      <c r="H525" t="n">
+        <v>23</v>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J525" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
+      <c r="M525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>66442</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>ASP - N8A - ID</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>6455</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>21 / 30</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr"/>
+      <c r="H526" t="n">
+        <v>21</v>
+      </c>
+      <c r="I526" t="n">
+        <v>30</v>
+      </c>
+      <c r="J526" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
+      <c r="M526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>66440</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>ASP - M8A - ID</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>6455</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arq. de soft. en la práctica</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>28 / 29</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="n">
+        <v>28</v>
+      </c>
+      <c r="I527" t="n">
+        <v>29</v>
+      </c>
+      <c r="J527" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
+      <c r="M527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>66515</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>AR - N7A - ID</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>3851</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arquitectura de software</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>33 / 33</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr"/>
+      <c r="H528" t="n">
+        <v>33</v>
+      </c>
+      <c r="I528" t="n">
+        <v>33</v>
+      </c>
+      <c r="J528" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
+      <c r="M528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>66758</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>ELE - AS</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>7902</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arquitecturas Serverless</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 /  æ </t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="n">
+        <v>12</v>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J529" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
+      <c r="M529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>66468</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>DPBT - N7A - AN</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>7666</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>12 / 29</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr"/>
+      <c r="H530" t="n">
+        <v>12</v>
+      </c>
+      <c r="I530" t="n">
+        <v>29</v>
+      </c>
+      <c r="J530" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
+      <c r="M530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>66445</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>DPBT - N8A - ID</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>7666</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>19 / 30</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="n">
+        <v>19</v>
+      </c>
+      <c r="I531" t="n">
+        <v>30</v>
+      </c>
+      <c r="J531" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
+      <c r="M531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>66444</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>DPBT - M8A - ID</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>7666</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Desarrollo de prod. base Tec.</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>29 / 29</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr"/>
+      <c r="H532" t="n">
+        <v>29</v>
+      </c>
+      <c r="I532" t="n">
+        <v>29</v>
+      </c>
+      <c r="J532" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
+      <c r="M532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>66441</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>DCU - N8A - ID</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>7667</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño centrado en el usuario</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>19 / 30</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr"/>
+      <c r="H533" t="n">
+        <v>19</v>
+      </c>
+      <c r="I533" t="n">
+        <v>30</v>
+      </c>
+      <c r="J533" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
+      <c r="M533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>66498</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>DA1 - N5A - ID</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>3924</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>11 / 26</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr"/>
+      <c r="H534" t="n">
+        <v>11</v>
+      </c>
+      <c r="I534" t="n">
+        <v>26</v>
+      </c>
+      <c r="J534" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
+      <c r="M534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>66454</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>DA1 - M4A - AN</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>3924</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>15 / 27</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr"/>
+      <c r="H535" t="n">
+        <v>15</v>
+      </c>
+      <c r="I535" t="n">
+        <v>27</v>
+      </c>
+      <c r="J535" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>66459</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>DA1 - N4A - AN</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>3924</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>16 / 35</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr"/>
+      <c r="H536" t="n">
+        <v>16</v>
+      </c>
+      <c r="I536" t="n">
+        <v>35</v>
+      </c>
+      <c r="J536" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>66456</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>DA1 - M4B - AN</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>3924</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>22 / 22</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="n">
+        <v>22</v>
+      </c>
+      <c r="I537" t="n">
+        <v>22</v>
+      </c>
+      <c r="J537" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>66497</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>DA1 - M5A - ID</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>3924</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 1</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>29 / 30</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="n">
+        <v>29</v>
+      </c>
+      <c r="I538" t="n">
+        <v>30</v>
+      </c>
+      <c r="J538" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>66460</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>DA2 - M5A - AN</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>16 / 26</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr"/>
+      <c r="H539" t="n">
+        <v>16</v>
+      </c>
+      <c r="I539" t="n">
+        <v>26</v>
+      </c>
+      <c r="J539" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>66501</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>DA2 - M6C - ID</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>20 / 30</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="n">
+        <v>20</v>
+      </c>
+      <c r="I540" t="n">
+        <v>30</v>
+      </c>
+      <c r="J540" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>66500</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>DA2 - M6B - ID</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>22 / 33</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="n">
+        <v>22</v>
+      </c>
+      <c r="I541" t="n">
+        <v>33</v>
+      </c>
+      <c r="J541" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>66499</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>DA2 - M6A - ID</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>26 / 26</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="n">
+        <v>26</v>
+      </c>
+      <c r="I542" t="n">
+        <v>26</v>
+      </c>
+      <c r="J542" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr"/>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>66461</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>DA2 - N5A - AN</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>32 / 32</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr"/>
+      <c r="H543" t="n">
+        <v>32</v>
+      </c>
+      <c r="I543" t="n">
+        <v>32</v>
+      </c>
+      <c r="J543" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="inlineStr"/>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>66502</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>DA2 - N6A - ID</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>6343</v>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diseño de aplicaciones 2</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>32 / 33</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="n">
+        <v>32</v>
+      </c>
+      <c r="I544" t="n">
+        <v>33</v>
+      </c>
+      <c r="J544" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr"/>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>66458</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>FIS - N3A - AN</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>7669</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>14 / 37</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr"/>
+      <c r="H545" t="n">
+        <v>14</v>
+      </c>
+      <c r="I545" t="n">
+        <v>37</v>
+      </c>
+      <c r="J545" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="inlineStr"/>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>66496</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>FIS - M4D - ID</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>7669</v>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>21 / 21</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="n">
+        <v>21</v>
+      </c>
+      <c r="I546" t="n">
+        <v>21</v>
+      </c>
+      <c r="J546" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>FIS - N4A - ID</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>7669</v>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>21 / 31</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr"/>
+      <c r="H547" t="n">
+        <v>21</v>
+      </c>
+      <c r="I547" t="n">
+        <v>31</v>
+      </c>
+      <c r="J547" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>66452</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>FIS - M3A - AN</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>7669</v>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>26 / 28</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="n">
+        <v>26</v>
+      </c>
+      <c r="I548" t="n">
+        <v>28</v>
+      </c>
+      <c r="J548" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>66492</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>FIS - M4A - ID</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>7669</v>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>26 / 28</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="n">
+        <v>26</v>
+      </c>
+      <c r="I549" t="n">
+        <v>28</v>
+      </c>
+      <c r="J549" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>66493</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>FIS - M4B - ID</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>7669</v>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>30 / 30</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="n">
+        <v>30</v>
+      </c>
+      <c r="I550" t="n">
+        <v>30</v>
+      </c>
+      <c r="J550" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>66494</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>FIS - M4C - ID</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>7669</v>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>30 / 30</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="n">
+        <v>30</v>
+      </c>
+      <c r="I551" t="n">
+        <v>30</v>
+      </c>
+      <c r="J551" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>66453</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>FIS - M3B - AN</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>7669</v>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fundamentos de Ing de software</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>7 / 10</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr"/>
+      <c r="H552" t="n">
+        <v>7</v>
+      </c>
+      <c r="I552" t="n">
+        <v>10</v>
+      </c>
+      <c r="J552" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>66727</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>HGGPY - N9A - ID</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>5733</v>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Habil gerenc en grupos proyect</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>30 / 30</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr"/>
+      <c r="H553" t="n">
+        <v>30</v>
+      </c>
+      <c r="I553" t="n">
+        <v>30</v>
+      </c>
+      <c r="J553" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>66509</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>ISA1 - M6C - ID</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>7674</v>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>16 / 30</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="n">
+        <v>16</v>
+      </c>
+      <c r="I554" t="n">
+        <v>30</v>
+      </c>
+      <c r="J554" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>66510</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>ISA1 - N6A - ID</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>7674</v>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>18 / 33</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr"/>
+      <c r="H555" t="n">
+        <v>18</v>
+      </c>
+      <c r="I555" t="n">
+        <v>33</v>
+      </c>
+      <c r="J555" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
+      <c r="M555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>66508</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>ISA1 - M6B - ID</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>7674</v>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>23 / 33</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr"/>
+      <c r="H556" t="n">
+        <v>23</v>
+      </c>
+      <c r="I556" t="n">
+        <v>33</v>
+      </c>
+      <c r="J556" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>66507</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>ISA1 - M6A - ID</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>7674</v>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>25 / 25</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr"/>
+      <c r="H557" t="n">
+        <v>25</v>
+      </c>
+      <c r="I557" t="n">
+        <v>25</v>
+      </c>
+      <c r="J557" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
+      <c r="M557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>66467</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>ISA1 - N6A - AN</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>7674</v>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 1</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>33 / 38</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr"/>
+      <c r="H558" t="n">
+        <v>33</v>
+      </c>
+      <c r="I558" t="n">
+        <v>38</v>
+      </c>
+      <c r="J558" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
+      <c r="M558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>66516</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>ISA2 - N7A - ID</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>7675</v>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ingeniería de software ágil 2</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>25 / 30</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr"/>
+      <c r="H559" t="n">
+        <v>25</v>
+      </c>
+      <c r="I559" t="n">
+        <v>30</v>
+      </c>
+      <c r="J559" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
+      <c r="M559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>66443</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>IHC - M8A - ID</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>7676</v>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Interacción humano-computadora</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>Matutino</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>31 / 31</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr"/>
+      <c r="H560" t="n">
+        <v>31</v>
+      </c>
+      <c r="I560" t="n">
+        <v>31</v>
+      </c>
+      <c r="J560" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
+      <c r="M560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>66766</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>ELE - TNEP</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>7473</v>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tec. de negoc. para equip proy</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>Nocturno</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 /  æ </t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="n">
+        <v>22</v>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>æ</t>
+        </is>
+      </c>
+      <c r="J561" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
+      <c r="M561" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
